--- a/biology/Écologie/LPED/LPED.xlsx
+++ b/biology/Écologie/LPED/LPED.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Laboratoire Population - Environnement - Développement (LPED) est une unité mixte de recherche française sous tutelle de l'Institut de recherche pour le développement (IRD) et de l'Université d'Aix-Marseille (AMU).
 Ce Laboratoire aborde, depuis 1984, les interrelations entre les dynamiques sociales, environnementales et de développement, à la fois dans ses activités de recherche, de formation à la recherche, d’expertise et de valorisation scientifiques.
@@ -514,7 +526,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Laboratoire Population - Environnement (LPE) a été fondé en 1984, dans le cadre du DESS « Politiques démographiques dans les pays en voie de développement » de l’Université de Provence. Sa constitution en tant que laboratoire commun, réunissant des enseignants-chercheurs de l’Université et des chercheurs de l’IRD (ORSTOM à l’époque), a d’abord reposé sur des conventions d’affectation. Depuis 1994, le statut du laboratoire découle d’un cadre conventionnel entre l’Université de Provence et l’Institut de recherche pour le développement (IRD).
 Le Laboratoire a été inscrit comme Équipe d’Accueil, dans le Contrat quadriennal 1996-1999 de l’Université de Provence. En janvier 2002, le LPED obtient le statut d’Unité mixte de recherche de l’IRD et de l’Université de Provence (UMR IRD 151). Il est entré, en janvier 2012, dans son troisième contrat d'unité mixte.
@@ -546,7 +560,9 @@
           <t>Activités</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le LPED aborde les éco-anthroposystèmes dans leur complexité. Il les appréhende selon différentes échelles socio-spatiales – allant du global au local, à partir de la diversité des acteurs (des organisations supranationales aux individus) et en prenant en compte la multiplicité des dimensions des systèmes écologique et social.
 Ses recherches se construisent à partir de quatre axes thématiques structurants :
